--- a/Excel-XLSX/UN-POR.xlsx
+++ b/Excel-XLSX/UN-POR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1448">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>sZa1A4</t>
+    <t>Ar1Sl7</t>
   </si>
   <si>
     <t>1975</t>
@@ -4107,18 +4107,18 @@
     <t>1045</t>
   </si>
   <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>BKF</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
     <t>1046</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>BKF</t>
-  </si>
-  <si>
-    <t>BFA</t>
-  </si>
-  <si>
     <t>1047</t>
   </si>
   <si>
@@ -4152,6 +4152,15 @@
     <t>1057</t>
   </si>
   <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>CVI</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
     <t>1058</t>
   </si>
   <si>
@@ -4260,7 +4269,7 @@
     <t>1093</t>
   </si>
   <si>
-    <t>2384</t>
+    <t>2392</t>
   </si>
   <si>
     <t>1094</t>
@@ -4329,12 +4338,12 @@
     <t>1115</t>
   </si>
   <si>
-    <t>53919</t>
-  </si>
-  <si>
     <t>1116</t>
   </si>
   <si>
+    <t>57141</t>
+  </si>
+  <si>
     <t>1117</t>
   </si>
   <si>
@@ -4348,6 +4357,9 @@
   </si>
   <si>
     <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
   </si>
 </sst>
 </file>
@@ -4732,7 +4744,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1122"/>
+  <dimension ref="A1:V1123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -75229,10 +75241,10 @@
         <v>32</v>
       </c>
       <c r="N1037" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="O1037" s="2" t="s">
-        <v>520</v>
+        <v>572</v>
       </c>
       <c r="P1037" s="2" t="s">
         <v>34</v>
@@ -75365,10 +75377,10 @@
         <v>32</v>
       </c>
       <c r="N1039" s="2" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="O1039" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="P1039" s="2" t="s">
         <v>34</v>
@@ -75433,10 +75445,10 @@
         <v>32</v>
       </c>
       <c r="N1040" s="2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O1040" s="2" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="P1040" s="2" t="s">
         <v>34</v>
@@ -75501,10 +75513,10 @@
         <v>32</v>
       </c>
       <c r="N1041" s="2" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="O1041" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="P1041" s="2" t="s">
         <v>34</v>
@@ -75569,10 +75581,10 @@
         <v>32</v>
       </c>
       <c r="N1042" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="O1042" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1042" s="2" t="s">
         <v>34</v>
@@ -75613,16 +75625,16 @@
         <v>1353</v>
       </c>
       <c r="F1043" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1043" s="1" t="s">
-        <v>1125</v>
+        <v>1062</v>
       </c>
       <c r="H1043" s="1" t="s">
-        <v>1126</v>
+        <v>1063</v>
       </c>
       <c r="I1043" s="1" t="s">
-        <v>1127</v>
+        <v>1063</v>
       </c>
       <c r="J1043" s="2" t="s">
         <v>29</v>
@@ -75637,7 +75649,7 @@
         <v>32</v>
       </c>
       <c r="N1043" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="O1043" s="2" t="s">
         <v>34</v>
@@ -75681,16 +75693,16 @@
         <v>1353</v>
       </c>
       <c r="F1044" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G1044" s="1" t="s">
-        <v>1062</v>
+        <v>944</v>
       </c>
       <c r="H1044" s="1" t="s">
-        <v>1063</v>
+        <v>945</v>
       </c>
       <c r="I1044" s="1" t="s">
-        <v>1063</v>
+        <v>945</v>
       </c>
       <c r="J1044" s="2" t="s">
         <v>29</v>
@@ -75705,10 +75717,10 @@
         <v>32</v>
       </c>
       <c r="N1044" s="2" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="O1044" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1044" s="2" t="s">
         <v>34</v>
@@ -75749,16 +75761,16 @@
         <v>1353</v>
       </c>
       <c r="F1045" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G1045" s="1" t="s">
-        <v>944</v>
+        <v>634</v>
       </c>
       <c r="H1045" s="1" t="s">
-        <v>945</v>
+        <v>635</v>
       </c>
       <c r="I1045" s="1" t="s">
-        <v>945</v>
+        <v>635</v>
       </c>
       <c r="J1045" s="2" t="s">
         <v>29</v>
@@ -75773,10 +75785,10 @@
         <v>32</v>
       </c>
       <c r="N1045" s="2" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="O1045" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="P1045" s="2" t="s">
         <v>34</v>
@@ -75817,16 +75829,16 @@
         <v>1353</v>
       </c>
       <c r="F1046" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G1046" s="1" t="s">
-        <v>634</v>
+        <v>1363</v>
       </c>
       <c r="H1046" s="1" t="s">
-        <v>635</v>
+        <v>1364</v>
       </c>
       <c r="I1046" s="1" t="s">
-        <v>635</v>
+        <v>1365</v>
       </c>
       <c r="J1046" s="2" t="s">
         <v>29</v>
@@ -75841,10 +75853,10 @@
         <v>32</v>
       </c>
       <c r="N1046" s="2" t="s">
-        <v>287</v>
+        <v>34</v>
       </c>
       <c r="O1046" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="P1046" s="2" t="s">
         <v>34</v>
@@ -75879,22 +75891,22 @@
         <v>22</v>
       </c>
       <c r="D1047" s="2" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="E1047" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1047" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G1047" s="1" t="s">
-        <v>1364</v>
+        <v>270</v>
       </c>
       <c r="H1047" s="1" t="s">
-        <v>1365</v>
+        <v>271</v>
       </c>
       <c r="I1047" s="1" t="s">
-        <v>1366</v>
+        <v>271</v>
       </c>
       <c r="J1047" s="2" t="s">
         <v>29</v>
@@ -75909,7 +75921,7 @@
         <v>32</v>
       </c>
       <c r="N1047" s="2" t="s">
-        <v>34</v>
+        <v>633</v>
       </c>
       <c r="O1047" s="2" t="s">
         <v>44</v>
@@ -75953,16 +75965,16 @@
         <v>1353</v>
       </c>
       <c r="F1048" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G1048" s="1" t="s">
-        <v>270</v>
+        <v>889</v>
       </c>
       <c r="H1048" s="1" t="s">
-        <v>271</v>
+        <v>890</v>
       </c>
       <c r="I1048" s="1" t="s">
-        <v>271</v>
+        <v>890</v>
       </c>
       <c r="J1048" s="2" t="s">
         <v>29</v>
@@ -75977,10 +75989,10 @@
         <v>32</v>
       </c>
       <c r="N1048" s="2" t="s">
-        <v>638</v>
+        <v>83</v>
       </c>
       <c r="O1048" s="2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="P1048" s="2" t="s">
         <v>34</v>
@@ -76021,16 +76033,16 @@
         <v>1353</v>
       </c>
       <c r="F1049" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="G1049" s="1" t="s">
-        <v>889</v>
+        <v>1134</v>
       </c>
       <c r="H1049" s="1" t="s">
-        <v>890</v>
+        <v>1135</v>
       </c>
       <c r="I1049" s="1" t="s">
-        <v>890</v>
+        <v>1135</v>
       </c>
       <c r="J1049" s="2" t="s">
         <v>29</v>
@@ -76045,10 +76057,10 @@
         <v>32</v>
       </c>
       <c r="N1049" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O1049" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="P1049" s="2" t="s">
         <v>34</v>
@@ -76089,16 +76101,16 @@
         <v>1353</v>
       </c>
       <c r="F1050" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G1050" s="1" t="s">
-        <v>1134</v>
+        <v>526</v>
       </c>
       <c r="H1050" s="1" t="s">
-        <v>1135</v>
+        <v>527</v>
       </c>
       <c r="I1050" s="1" t="s">
-        <v>1135</v>
+        <v>528</v>
       </c>
       <c r="J1050" s="2" t="s">
         <v>29</v>
@@ -76113,10 +76125,10 @@
         <v>32</v>
       </c>
       <c r="N1050" s="2" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="O1050" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P1050" s="2" t="s">
         <v>34</v>
@@ -76157,16 +76169,16 @@
         <v>1353</v>
       </c>
       <c r="F1051" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="G1051" s="1" t="s">
-        <v>526</v>
+        <v>745</v>
       </c>
       <c r="H1051" s="1" t="s">
-        <v>527</v>
+        <v>746</v>
       </c>
       <c r="I1051" s="1" t="s">
-        <v>528</v>
+        <v>747</v>
       </c>
       <c r="J1051" s="2" t="s">
         <v>29</v>
@@ -76181,10 +76193,10 @@
         <v>32</v>
       </c>
       <c r="N1051" s="2" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="O1051" s="2" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="P1051" s="2" t="s">
         <v>34</v>
@@ -76225,16 +76237,16 @@
         <v>1353</v>
       </c>
       <c r="F1052" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G1052" s="1" t="s">
-        <v>745</v>
+        <v>490</v>
       </c>
       <c r="H1052" s="1" t="s">
-        <v>746</v>
+        <v>491</v>
       </c>
       <c r="I1052" s="1" t="s">
-        <v>747</v>
+        <v>491</v>
       </c>
       <c r="J1052" s="2" t="s">
         <v>29</v>
@@ -76249,10 +76261,10 @@
         <v>32</v>
       </c>
       <c r="N1052" s="2" t="s">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="O1052" s="2" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="P1052" s="2" t="s">
         <v>34</v>
@@ -76293,16 +76305,16 @@
         <v>1353</v>
       </c>
       <c r="F1053" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G1053" s="1" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="H1053" s="1" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="I1053" s="1" t="s">
-        <v>491</v>
+        <v>586</v>
       </c>
       <c r="J1053" s="2" t="s">
         <v>29</v>
@@ -76317,10 +76329,10 @@
         <v>32</v>
       </c>
       <c r="N1053" s="2" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="O1053" s="2" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="P1053" s="2" t="s">
         <v>34</v>
@@ -76361,16 +76373,16 @@
         <v>1353</v>
       </c>
       <c r="F1054" s="2" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="G1054" s="1" t="s">
-        <v>584</v>
+        <v>100</v>
       </c>
       <c r="H1054" s="1" t="s">
-        <v>585</v>
+        <v>101</v>
       </c>
       <c r="I1054" s="1" t="s">
-        <v>586</v>
+        <v>101</v>
       </c>
       <c r="J1054" s="2" t="s">
         <v>29</v>
@@ -76385,10 +76397,10 @@
         <v>32</v>
       </c>
       <c r="N1054" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="O1054" s="2" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="P1054" s="2" t="s">
         <v>34</v>
@@ -76429,16 +76441,16 @@
         <v>1353</v>
       </c>
       <c r="F1055" s="2" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="G1055" s="1" t="s">
-        <v>100</v>
+        <v>363</v>
       </c>
       <c r="H1055" s="1" t="s">
-        <v>101</v>
+        <v>364</v>
       </c>
       <c r="I1055" s="1" t="s">
-        <v>101</v>
+        <v>365</v>
       </c>
       <c r="J1055" s="2" t="s">
         <v>29</v>
@@ -76453,10 +76465,10 @@
         <v>32</v>
       </c>
       <c r="N1055" s="2" t="s">
-        <v>269</v>
+        <v>34</v>
       </c>
       <c r="O1055" s="2" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="P1055" s="2" t="s">
         <v>34</v>
@@ -76497,16 +76509,16 @@
         <v>1353</v>
       </c>
       <c r="F1056" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G1056" s="1" t="s">
-        <v>363</v>
+        <v>241</v>
       </c>
       <c r="H1056" s="1" t="s">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="I1056" s="1" t="s">
-        <v>365</v>
+        <v>242</v>
       </c>
       <c r="J1056" s="2" t="s">
         <v>29</v>
@@ -76521,10 +76533,10 @@
         <v>32</v>
       </c>
       <c r="N1056" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="O1056" s="2" t="s">
-        <v>44</v>
+        <v>502</v>
       </c>
       <c r="P1056" s="2" t="s">
         <v>34</v>
@@ -76565,16 +76577,16 @@
         <v>1353</v>
       </c>
       <c r="F1057" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G1057" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H1057" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I1057" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J1057" s="2" t="s">
         <v>29</v>
@@ -76589,10 +76601,10 @@
         <v>32</v>
       </c>
       <c r="N1057" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O1057" s="2" t="s">
-        <v>457</v>
+        <v>46</v>
       </c>
       <c r="P1057" s="2" t="s">
         <v>34</v>
@@ -76633,16 +76645,16 @@
         <v>1353</v>
       </c>
       <c r="F1058" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1058" s="1" t="s">
-        <v>244</v>
+        <v>1378</v>
       </c>
       <c r="H1058" s="1" t="s">
-        <v>245</v>
+        <v>1379</v>
       </c>
       <c r="I1058" s="1" t="s">
-        <v>245</v>
+        <v>1380</v>
       </c>
       <c r="J1058" s="2" t="s">
         <v>29</v>
@@ -76695,7 +76707,7 @@
         <v>22</v>
       </c>
       <c r="D1059" s="2" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="E1059" s="2" t="s">
         <v>1353</v>
@@ -76763,7 +76775,7 @@
         <v>22</v>
       </c>
       <c r="D1060" s="2" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="E1060" s="2" t="s">
         <v>1353</v>
@@ -76831,7 +76843,7 @@
         <v>22</v>
       </c>
       <c r="D1061" s="2" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="E1061" s="2" t="s">
         <v>1353</v>
@@ -76861,10 +76873,10 @@
         <v>32</v>
       </c>
       <c r="N1061" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O1061" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P1061" s="2" t="s">
         <v>34</v>
@@ -76899,7 +76911,7 @@
         <v>22</v>
       </c>
       <c r="D1062" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="E1062" s="2" t="s">
         <v>1353</v>
@@ -76932,7 +76944,7 @@
         <v>78</v>
       </c>
       <c r="O1062" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P1062" s="2" t="s">
         <v>34</v>
@@ -76967,7 +76979,7 @@
         <v>22</v>
       </c>
       <c r="D1063" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="E1063" s="2" t="s">
         <v>1353</v>
@@ -77035,7 +77047,7 @@
         <v>22</v>
       </c>
       <c r="D1064" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="E1064" s="2" t="s">
         <v>1353</v>
@@ -77068,7 +77080,7 @@
         <v>80</v>
       </c>
       <c r="O1064" s="2" t="s">
-        <v>371</v>
+        <v>25</v>
       </c>
       <c r="P1064" s="2" t="s">
         <v>34</v>
@@ -77103,7 +77115,7 @@
         <v>22</v>
       </c>
       <c r="D1065" s="2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="E1065" s="2" t="s">
         <v>1353</v>
@@ -77133,10 +77145,10 @@
         <v>32</v>
       </c>
       <c r="N1065" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="O1065" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1065" s="2" t="s">
         <v>34</v>
@@ -77171,22 +77183,22 @@
         <v>22</v>
       </c>
       <c r="D1066" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="E1066" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1066" s="2" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="G1066" s="1" t="s">
-        <v>1158</v>
+        <v>537</v>
       </c>
       <c r="H1066" s="1" t="s">
-        <v>1159</v>
+        <v>538</v>
       </c>
       <c r="I1066" s="1" t="s">
-        <v>1159</v>
+        <v>538</v>
       </c>
       <c r="J1066" s="2" t="s">
         <v>29</v>
@@ -77201,10 +77213,10 @@
         <v>32</v>
       </c>
       <c r="N1066" s="2" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="O1066" s="2" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="P1066" s="2" t="s">
         <v>34</v>
@@ -77239,22 +77251,22 @@
         <v>22</v>
       </c>
       <c r="D1067" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="E1067" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1067" s="2" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="G1067" s="1" t="s">
-        <v>537</v>
+        <v>104</v>
       </c>
       <c r="H1067" s="1" t="s">
-        <v>538</v>
+        <v>105</v>
       </c>
       <c r="I1067" s="1" t="s">
-        <v>538</v>
+        <v>105</v>
       </c>
       <c r="J1067" s="2" t="s">
         <v>29</v>
@@ -77269,10 +77281,10 @@
         <v>32</v>
       </c>
       <c r="N1067" s="2" t="s">
-        <v>126</v>
+        <v>693</v>
       </c>
       <c r="O1067" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P1067" s="2" t="s">
         <v>34</v>
@@ -77307,22 +77319,22 @@
         <v>22</v>
       </c>
       <c r="D1068" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="E1068" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1068" s="2" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="G1068" s="1" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="H1068" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="I1068" s="1" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="J1068" s="2" t="s">
         <v>29</v>
@@ -77337,10 +77349,10 @@
         <v>32</v>
       </c>
       <c r="N1068" s="2" t="s">
-        <v>672</v>
+        <v>34</v>
       </c>
       <c r="O1068" s="2" t="s">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="P1068" s="2" t="s">
         <v>34</v>
@@ -77375,22 +77387,22 @@
         <v>22</v>
       </c>
       <c r="D1069" s="2" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="E1069" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1069" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G1069" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="H1069" s="1" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="I1069" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="J1069" s="2" t="s">
         <v>29</v>
@@ -77405,10 +77417,10 @@
         <v>32</v>
       </c>
       <c r="N1069" s="2" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O1069" s="2" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="P1069" s="2" t="s">
         <v>34</v>
@@ -77443,22 +77455,22 @@
         <v>22</v>
       </c>
       <c r="D1070" s="2" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="E1070" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1070" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G1070" s="1" t="s">
-        <v>247</v>
+        <v>1165</v>
       </c>
       <c r="H1070" s="1" t="s">
-        <v>248</v>
+        <v>1166</v>
       </c>
       <c r="I1070" s="1" t="s">
-        <v>249</v>
+        <v>1167</v>
       </c>
       <c r="J1070" s="2" t="s">
         <v>29</v>
@@ -77473,10 +77485,10 @@
         <v>32</v>
       </c>
       <c r="N1070" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="O1070" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="P1070" s="2" t="s">
         <v>34</v>
@@ -77511,22 +77523,22 @@
         <v>22</v>
       </c>
       <c r="D1071" s="2" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="E1071" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1071" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G1071" s="1" t="s">
-        <v>1165</v>
+        <v>374</v>
       </c>
       <c r="H1071" s="1" t="s">
-        <v>1166</v>
+        <v>375</v>
       </c>
       <c r="I1071" s="1" t="s">
-        <v>1167</v>
+        <v>376</v>
       </c>
       <c r="J1071" s="2" t="s">
         <v>29</v>
@@ -77541,10 +77553,10 @@
         <v>32</v>
       </c>
       <c r="N1071" s="2" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="O1071" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="P1071" s="2" t="s">
         <v>34</v>
@@ -77579,22 +77591,22 @@
         <v>22</v>
       </c>
       <c r="D1072" s="2" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="E1072" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1072" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="G1072" s="1" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="H1072" s="1" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="I1072" s="1" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="J1072" s="2" t="s">
         <v>29</v>
@@ -77609,10 +77621,10 @@
         <v>32</v>
       </c>
       <c r="N1072" s="2" t="s">
-        <v>164</v>
+        <v>1027</v>
       </c>
       <c r="O1072" s="2" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="P1072" s="2" t="s">
         <v>34</v>
@@ -77647,22 +77659,22 @@
         <v>22</v>
       </c>
       <c r="D1073" s="2" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="E1073" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1073" s="2" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="G1073" s="1" t="s">
-        <v>406</v>
+        <v>112</v>
       </c>
       <c r="H1073" s="1" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="I1073" s="1" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="J1073" s="2" t="s">
         <v>29</v>
@@ -77677,10 +77689,10 @@
         <v>32</v>
       </c>
       <c r="N1073" s="2" t="s">
-        <v>1022</v>
+        <v>212</v>
       </c>
       <c r="O1073" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="P1073" s="2" t="s">
         <v>34</v>
@@ -77715,22 +77727,22 @@
         <v>22</v>
       </c>
       <c r="D1074" s="2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="E1074" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1074" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G1074" s="1" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H1074" s="1" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="I1074" s="1" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="J1074" s="2" t="s">
         <v>29</v>
@@ -77745,10 +77757,10 @@
         <v>32</v>
       </c>
       <c r="N1074" s="2" t="s">
-        <v>219</v>
+        <v>467</v>
       </c>
       <c r="O1074" s="2" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="P1074" s="2" t="s">
         <v>34</v>
@@ -77783,22 +77795,22 @@
         <v>22</v>
       </c>
       <c r="D1075" s="2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="E1075" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1075" s="2" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="G1075" s="1" t="s">
-        <v>155</v>
+        <v>1173</v>
       </c>
       <c r="H1075" s="1" t="s">
-        <v>156</v>
+        <v>1174</v>
       </c>
       <c r="I1075" s="1" t="s">
-        <v>156</v>
+        <v>1174</v>
       </c>
       <c r="J1075" s="2" t="s">
         <v>29</v>
@@ -77813,10 +77825,10 @@
         <v>32</v>
       </c>
       <c r="N1075" s="2" t="s">
-        <v>468</v>
+        <v>144</v>
       </c>
       <c r="O1075" s="2" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="P1075" s="2" t="s">
         <v>34</v>
@@ -77851,22 +77863,22 @@
         <v>22</v>
       </c>
       <c r="D1076" s="2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="E1076" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1076" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G1076" s="1" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="H1076" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="I1076" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="J1076" s="2" t="s">
         <v>29</v>
@@ -77881,10 +77893,10 @@
         <v>32</v>
       </c>
       <c r="N1076" s="2" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="O1076" s="2" t="s">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="P1076" s="2" t="s">
         <v>34</v>
@@ -77919,22 +77931,22 @@
         <v>22</v>
       </c>
       <c r="D1077" s="2" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="E1077" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1077" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G1077" s="1" t="s">
-        <v>1176</v>
+        <v>969</v>
       </c>
       <c r="H1077" s="1" t="s">
-        <v>1177</v>
+        <v>970</v>
       </c>
       <c r="I1077" s="1" t="s">
-        <v>1177</v>
+        <v>970</v>
       </c>
       <c r="J1077" s="2" t="s">
         <v>29</v>
@@ -77949,7 +77961,7 @@
         <v>32</v>
       </c>
       <c r="N1077" s="2" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O1077" s="2" t="s">
         <v>34</v>
@@ -77987,22 +77999,22 @@
         <v>22</v>
       </c>
       <c r="D1078" s="2" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="E1078" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1078" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G1078" s="1" t="s">
-        <v>969</v>
+        <v>279</v>
       </c>
       <c r="H1078" s="1" t="s">
-        <v>970</v>
+        <v>280</v>
       </c>
       <c r="I1078" s="1" t="s">
-        <v>970</v>
+        <v>280</v>
       </c>
       <c r="J1078" s="2" t="s">
         <v>29</v>
@@ -78017,7 +78029,7 @@
         <v>32</v>
       </c>
       <c r="N1078" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="O1078" s="2" t="s">
         <v>34</v>
@@ -78055,22 +78067,22 @@
         <v>22</v>
       </c>
       <c r="D1079" s="2" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="E1079" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1079" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G1079" s="1" t="s">
-        <v>279</v>
+        <v>547</v>
       </c>
       <c r="H1079" s="1" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="I1079" s="1" t="s">
-        <v>280</v>
+        <v>548</v>
       </c>
       <c r="J1079" s="2" t="s">
         <v>29</v>
@@ -78088,7 +78100,7 @@
         <v>69</v>
       </c>
       <c r="O1079" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1079" s="2" t="s">
         <v>34</v>
@@ -78123,22 +78135,22 @@
         <v>22</v>
       </c>
       <c r="D1080" s="2" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="E1080" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1080" s="2" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="G1080" s="1" t="s">
-        <v>547</v>
+        <v>116</v>
       </c>
       <c r="H1080" s="1" t="s">
-        <v>548</v>
+        <v>117</v>
       </c>
       <c r="I1080" s="1" t="s">
-        <v>548</v>
+        <v>117</v>
       </c>
       <c r="J1080" s="2" t="s">
         <v>29</v>
@@ -78153,10 +78165,10 @@
         <v>32</v>
       </c>
       <c r="N1080" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O1080" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1080" s="2" t="s">
         <v>34</v>
@@ -78191,22 +78203,22 @@
         <v>22</v>
       </c>
       <c r="D1081" s="2" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="E1081" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1081" s="2" t="s">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="G1081" s="1" t="s">
-        <v>116</v>
+        <v>607</v>
       </c>
       <c r="H1081" s="1" t="s">
-        <v>117</v>
+        <v>608</v>
       </c>
       <c r="I1081" s="1" t="s">
-        <v>117</v>
+        <v>608</v>
       </c>
       <c r="J1081" s="2" t="s">
         <v>29</v>
@@ -78221,10 +78233,10 @@
         <v>32</v>
       </c>
       <c r="N1081" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="O1081" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P1081" s="2" t="s">
         <v>34</v>
@@ -78259,22 +78271,22 @@
         <v>22</v>
       </c>
       <c r="D1082" s="2" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="E1082" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1082" s="2" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="G1082" s="1" t="s">
-        <v>607</v>
+        <v>1184</v>
       </c>
       <c r="H1082" s="1" t="s">
-        <v>608</v>
+        <v>1185</v>
       </c>
       <c r="I1082" s="1" t="s">
-        <v>608</v>
+        <v>1186</v>
       </c>
       <c r="J1082" s="2" t="s">
         <v>29</v>
@@ -78289,10 +78301,10 @@
         <v>32</v>
       </c>
       <c r="N1082" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="O1082" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P1082" s="2" t="s">
         <v>34</v>
@@ -78327,22 +78339,22 @@
         <v>22</v>
       </c>
       <c r="D1083" s="2" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="E1083" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1083" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="G1083" s="1" t="s">
-        <v>1184</v>
+        <v>120</v>
       </c>
       <c r="H1083" s="1" t="s">
-        <v>1185</v>
+        <v>121</v>
       </c>
       <c r="I1083" s="1" t="s">
-        <v>1186</v>
+        <v>121</v>
       </c>
       <c r="J1083" s="2" t="s">
         <v>29</v>
@@ -78357,7 +78369,7 @@
         <v>32</v>
       </c>
       <c r="N1083" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O1083" s="2" t="s">
         <v>34</v>
@@ -78395,22 +78407,22 @@
         <v>22</v>
       </c>
       <c r="D1084" s="2" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="E1084" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1084" s="2" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="G1084" s="1" t="s">
-        <v>120</v>
+        <v>662</v>
       </c>
       <c r="H1084" s="1" t="s">
-        <v>121</v>
+        <v>663</v>
       </c>
       <c r="I1084" s="1" t="s">
-        <v>121</v>
+        <v>664</v>
       </c>
       <c r="J1084" s="2" t="s">
         <v>29</v>
@@ -78425,10 +78437,10 @@
         <v>32</v>
       </c>
       <c r="N1084" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="O1084" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="P1084" s="2" t="s">
         <v>34</v>
@@ -78463,22 +78475,22 @@
         <v>22</v>
       </c>
       <c r="D1085" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="E1085" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1085" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G1085" s="1" t="s">
-        <v>662</v>
+        <v>1189</v>
       </c>
       <c r="H1085" s="1" t="s">
-        <v>663</v>
+        <v>1190</v>
       </c>
       <c r="I1085" s="1" t="s">
-        <v>664</v>
+        <v>1190</v>
       </c>
       <c r="J1085" s="2" t="s">
         <v>29</v>
@@ -78493,10 +78505,10 @@
         <v>32</v>
       </c>
       <c r="N1085" s="2" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="O1085" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="P1085" s="2" t="s">
         <v>34</v>
@@ -78531,22 +78543,22 @@
         <v>22</v>
       </c>
       <c r="D1086" s="2" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="E1086" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1086" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G1086" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="H1086" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="I1086" s="1" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="J1086" s="2" t="s">
         <v>29</v>
@@ -78561,10 +78573,10 @@
         <v>32</v>
       </c>
       <c r="N1086" s="2" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="O1086" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P1086" s="2" t="s">
         <v>34</v>
@@ -78599,22 +78611,22 @@
         <v>22</v>
       </c>
       <c r="D1087" s="2" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="E1087" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1087" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="G1087" s="1" t="s">
-        <v>1192</v>
+        <v>667</v>
       </c>
       <c r="H1087" s="1" t="s">
-        <v>1193</v>
+        <v>668</v>
       </c>
       <c r="I1087" s="1" t="s">
-        <v>1193</v>
+        <v>668</v>
       </c>
       <c r="J1087" s="2" t="s">
         <v>29</v>
@@ -78629,10 +78641,10 @@
         <v>32</v>
       </c>
       <c r="N1087" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O1087" s="2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="P1087" s="2" t="s">
         <v>34</v>
@@ -78667,22 +78679,22 @@
         <v>22</v>
       </c>
       <c r="D1088" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="E1088" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1088" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1088" s="1" t="s">
-        <v>667</v>
+        <v>1196</v>
       </c>
       <c r="H1088" s="1" t="s">
-        <v>668</v>
+        <v>1197</v>
       </c>
       <c r="I1088" s="1" t="s">
-        <v>668</v>
+        <v>1198</v>
       </c>
       <c r="J1088" s="2" t="s">
         <v>29</v>
@@ -78697,10 +78709,10 @@
         <v>32</v>
       </c>
       <c r="N1088" s="2" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="O1088" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P1088" s="2" t="s">
         <v>34</v>
@@ -78735,22 +78747,22 @@
         <v>22</v>
       </c>
       <c r="D1089" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="E1089" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1089" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G1089" s="1" t="s">
-        <v>1196</v>
+        <v>553</v>
       </c>
       <c r="H1089" s="1" t="s">
-        <v>1197</v>
+        <v>554</v>
       </c>
       <c r="I1089" s="1" t="s">
-        <v>1198</v>
+        <v>555</v>
       </c>
       <c r="J1089" s="2" t="s">
         <v>29</v>
@@ -78765,10 +78777,10 @@
         <v>32</v>
       </c>
       <c r="N1089" s="2" t="s">
-        <v>46</v>
+        <v>1301</v>
       </c>
       <c r="O1089" s="2" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="P1089" s="2" t="s">
         <v>34</v>
@@ -78803,22 +78815,22 @@
         <v>22</v>
       </c>
       <c r="D1090" s="2" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="E1090" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1090" s="2" t="s">
-        <v>272</v>
+        <v>123</v>
       </c>
       <c r="G1090" s="1" t="s">
-        <v>553</v>
+        <v>124</v>
       </c>
       <c r="H1090" s="1" t="s">
-        <v>554</v>
+        <v>125</v>
       </c>
       <c r="I1090" s="1" t="s">
-        <v>555</v>
+        <v>125</v>
       </c>
       <c r="J1090" s="2" t="s">
         <v>29</v>
@@ -78833,10 +78845,10 @@
         <v>32</v>
       </c>
       <c r="N1090" s="2" t="s">
-        <v>1275</v>
+        <v>34</v>
       </c>
       <c r="O1090" s="2" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="P1090" s="2" t="s">
         <v>34</v>
@@ -78871,7 +78883,7 @@
         <v>22</v>
       </c>
       <c r="D1091" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="E1091" s="2" t="s">
         <v>1353</v>
@@ -78939,7 +78951,7 @@
         <v>22</v>
       </c>
       <c r="D1092" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="E1092" s="2" t="s">
         <v>1353</v>
@@ -78969,10 +78981,10 @@
         <v>32</v>
       </c>
       <c r="N1092" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="O1092" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P1092" s="2" t="s">
         <v>34</v>
@@ -79007,7 +79019,7 @@
         <v>22</v>
       </c>
       <c r="D1093" s="2" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="E1093" s="2" t="s">
         <v>1353</v>
@@ -79075,7 +79087,7 @@
         <v>22</v>
       </c>
       <c r="D1094" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="E1094" s="2" t="s">
         <v>1353</v>
@@ -79105,10 +79117,10 @@
         <v>32</v>
       </c>
       <c r="N1094" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="O1094" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="P1094" s="2" t="s">
         <v>34</v>
@@ -79143,7 +79155,7 @@
         <v>22</v>
       </c>
       <c r="D1095" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="E1095" s="2" t="s">
         <v>1353</v>
@@ -79173,10 +79185,10 @@
         <v>32</v>
       </c>
       <c r="N1095" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="O1095" s="2" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="P1095" s="2" t="s">
         <v>34</v>
@@ -79211,7 +79223,7 @@
         <v>22</v>
       </c>
       <c r="D1096" s="2" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="E1096" s="2" t="s">
         <v>1353</v>
@@ -79244,7 +79256,7 @@
         <v>34</v>
       </c>
       <c r="O1096" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="P1096" s="2" t="s">
         <v>34</v>
@@ -79279,7 +79291,7 @@
         <v>22</v>
       </c>
       <c r="D1097" s="2" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="E1097" s="2" t="s">
         <v>1353</v>
@@ -79347,7 +79359,7 @@
         <v>22</v>
       </c>
       <c r="D1098" s="2" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="E1098" s="2" t="s">
         <v>1353</v>
@@ -79377,10 +79389,10 @@
         <v>32</v>
       </c>
       <c r="N1098" s="2" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="O1098" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P1098" s="2" t="s">
         <v>34</v>
@@ -79415,7 +79427,7 @@
         <v>22</v>
       </c>
       <c r="D1099" s="2" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="E1099" s="2" t="s">
         <v>1353</v>
@@ -79483,7 +79495,7 @@
         <v>22</v>
       </c>
       <c r="D1100" s="2" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="E1100" s="2" t="s">
         <v>1353</v>
@@ -79516,7 +79528,7 @@
         <v>34</v>
       </c>
       <c r="O1100" s="2" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="P1100" s="2" t="s">
         <v>34</v>
@@ -79551,7 +79563,7 @@
         <v>22</v>
       </c>
       <c r="D1101" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="E1101" s="2" t="s">
         <v>1353</v>
@@ -79581,10 +79593,10 @@
         <v>32</v>
       </c>
       <c r="N1101" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="O1101" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P1101" s="2" t="s">
         <v>34</v>
@@ -79619,7 +79631,7 @@
         <v>22</v>
       </c>
       <c r="D1102" s="2" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="E1102" s="2" t="s">
         <v>1353</v>
@@ -79652,7 +79664,7 @@
         <v>184</v>
       </c>
       <c r="O1102" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="P1102" s="2" t="s">
         <v>34</v>
@@ -79687,7 +79699,7 @@
         <v>22</v>
       </c>
       <c r="D1103" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="E1103" s="2" t="s">
         <v>1353</v>
@@ -79755,7 +79767,7 @@
         <v>22</v>
       </c>
       <c r="D1104" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="E1104" s="2" t="s">
         <v>1353</v>
@@ -79823,7 +79835,7 @@
         <v>22</v>
       </c>
       <c r="D1105" s="2" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E1105" s="2" t="s">
         <v>1353</v>
@@ -79856,7 +79868,7 @@
         <v>223</v>
       </c>
       <c r="O1105" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="P1105" s="2" t="s">
         <v>34</v>
@@ -79891,7 +79903,7 @@
         <v>22</v>
       </c>
       <c r="D1106" s="2" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="E1106" s="2" t="s">
         <v>1353</v>
@@ -79921,7 +79933,7 @@
         <v>32</v>
       </c>
       <c r="N1106" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="O1106" s="2" t="s">
         <v>34</v>
@@ -79959,7 +79971,7 @@
         <v>22</v>
       </c>
       <c r="D1107" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="E1107" s="2" t="s">
         <v>1353</v>
@@ -79989,10 +80001,10 @@
         <v>32</v>
       </c>
       <c r="N1107" s="2" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="O1107" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="P1107" s="2" t="s">
         <v>34</v>
@@ -80027,7 +80039,7 @@
         <v>22</v>
       </c>
       <c r="D1108" s="2" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="E1108" s="2" t="s">
         <v>1353</v>
@@ -80095,7 +80107,7 @@
         <v>22</v>
       </c>
       <c r="D1109" s="2" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="E1109" s="2" t="s">
         <v>1353</v>
@@ -80163,7 +80175,7 @@
         <v>22</v>
       </c>
       <c r="D1110" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="E1110" s="2" t="s">
         <v>1353</v>
@@ -80231,7 +80243,7 @@
         <v>22</v>
       </c>
       <c r="D1111" s="2" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="E1111" s="2" t="s">
         <v>1353</v>
@@ -80299,7 +80311,7 @@
         <v>22</v>
       </c>
       <c r="D1112" s="2" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="E1112" s="2" t="s">
         <v>1353</v>
@@ -80329,7 +80341,7 @@
         <v>32</v>
       </c>
       <c r="N1112" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O1112" s="2" t="s">
         <v>34</v>
@@ -80367,7 +80379,7 @@
         <v>22</v>
       </c>
       <c r="D1113" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="E1113" s="2" t="s">
         <v>1353</v>
@@ -80400,7 +80412,7 @@
         <v>165</v>
       </c>
       <c r="O1113" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P1113" s="2" t="s">
         <v>34</v>
@@ -80435,7 +80447,7 @@
         <v>22</v>
       </c>
       <c r="D1114" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="E1114" s="2" t="s">
         <v>1353</v>
@@ -80468,7 +80480,7 @@
         <v>190</v>
       </c>
       <c r="O1114" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="P1114" s="2" t="s">
         <v>34</v>
@@ -80503,7 +80515,7 @@
         <v>22</v>
       </c>
       <c r="D1115" s="2" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="E1115" s="2" t="s">
         <v>1353</v>
@@ -80571,22 +80583,22 @@
         <v>22</v>
       </c>
       <c r="D1116" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="E1116" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1116" s="2" t="s">
-        <v>338</v>
+        <v>25</v>
       </c>
       <c r="G1116" s="1" t="s">
-        <v>574</v>
+        <v>26</v>
       </c>
       <c r="H1116" s="1" t="s">
-        <v>575</v>
+        <v>27</v>
       </c>
       <c r="I1116" s="1" t="s">
-        <v>575</v>
+        <v>28</v>
       </c>
       <c r="J1116" s="2" t="s">
         <v>29</v>
@@ -80601,13 +80613,13 @@
         <v>32</v>
       </c>
       <c r="N1116" s="2" t="s">
-        <v>1437</v>
+        <v>159</v>
       </c>
       <c r="O1116" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="P1116" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="Q1116" s="2" t="s">
         <v>34</v>
@@ -80639,22 +80651,22 @@
         <v>22</v>
       </c>
       <c r="D1117" s="2" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="E1117" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1117" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G1117" s="1" t="s">
-        <v>1050</v>
+        <v>574</v>
       </c>
       <c r="H1117" s="1" t="s">
-        <v>1051</v>
+        <v>575</v>
       </c>
       <c r="I1117" s="1" t="s">
-        <v>1051</v>
+        <v>575</v>
       </c>
       <c r="J1117" s="2" t="s">
         <v>29</v>
@@ -80669,13 +80681,13 @@
         <v>32</v>
       </c>
       <c r="N1117" s="2" t="s">
-        <v>194</v>
+        <v>1441</v>
       </c>
       <c r="O1117" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="P1117" s="2" t="s">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="Q1117" s="2" t="s">
         <v>34</v>
@@ -80707,22 +80719,22 @@
         <v>22</v>
       </c>
       <c r="D1118" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="E1118" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1118" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G1118" s="1" t="s">
-        <v>481</v>
+        <v>1050</v>
       </c>
       <c r="H1118" s="1" t="s">
-        <v>482</v>
+        <v>1051</v>
       </c>
       <c r="I1118" s="1" t="s">
-        <v>482</v>
+        <v>1051</v>
       </c>
       <c r="J1118" s="2" t="s">
         <v>29</v>
@@ -80737,10 +80749,10 @@
         <v>32</v>
       </c>
       <c r="N1118" s="2" t="s">
-        <v>69</v>
+        <v>194</v>
       </c>
       <c r="O1118" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="P1118" s="2" t="s">
         <v>34</v>
@@ -80775,22 +80787,22 @@
         <v>22</v>
       </c>
       <c r="D1119" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="E1119" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1119" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G1119" s="1" t="s">
-        <v>835</v>
+        <v>481</v>
       </c>
       <c r="H1119" s="1" t="s">
-        <v>836</v>
+        <v>482</v>
       </c>
       <c r="I1119" s="1" t="s">
-        <v>836</v>
+        <v>482</v>
       </c>
       <c r="J1119" s="2" t="s">
         <v>29</v>
@@ -80805,10 +80817,10 @@
         <v>32</v>
       </c>
       <c r="N1119" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O1119" s="2" t="s">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="P1119" s="2" t="s">
         <v>34</v>
@@ -80843,22 +80855,22 @@
         <v>22</v>
       </c>
       <c r="D1120" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="E1120" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1120" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G1120" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="H1120" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I1120" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="J1120" s="2" t="s">
         <v>29</v>
@@ -80873,10 +80885,10 @@
         <v>32</v>
       </c>
       <c r="N1120" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="O1120" s="2" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="P1120" s="2" t="s">
         <v>34</v>
@@ -80911,22 +80923,22 @@
         <v>22</v>
       </c>
       <c r="D1121" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="E1121" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1121" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G1121" s="1" t="s">
-        <v>1257</v>
+        <v>838</v>
       </c>
       <c r="H1121" s="1" t="s">
-        <v>1258</v>
+        <v>839</v>
       </c>
       <c r="I1121" s="1" t="s">
-        <v>1259</v>
+        <v>839</v>
       </c>
       <c r="J1121" s="2" t="s">
         <v>29</v>
@@ -80941,7 +80953,7 @@
         <v>32</v>
       </c>
       <c r="N1121" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="O1121" s="2" t="s">
         <v>34</v>
@@ -80979,60 +80991,128 @@
         <v>22</v>
       </c>
       <c r="D1122" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="E1122" s="2" t="s">
         <v>1353</v>
       </c>
       <c r="F1122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1122" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H1122" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I1122" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J1122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1122" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1122" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1122" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E1123" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F1123" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G1122" s="1" t="s">
+      <c r="G1123" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H1122" s="1" t="s">
+      <c r="H1123" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I1122" s="1" t="s">
+      <c r="I1123" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J1122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1122" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1122" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1122" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1122" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1122" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1122" s="2" t="s">
+      <c r="J1123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1123" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1123" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1123" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1123" s="2" t="s">
         <v>34</v>
       </c>
     </row>
